--- a/private/concepts/seo/WEB_2_0_RESSOURCES_1_HKR.xlsx
+++ b/private/concepts/seo/WEB_2_0_RESSOURCES_1_HKR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1862B98A-369D-4590-B9DC-A9B763E03B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8577CF6-6C00-4A86-880B-E303A72E38F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="1500" windowWidth="27825" windowHeight="19005" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
+    <workbookView xWindow="19020" yWindow="285" windowWidth="27825" windowHeight="20100" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
   <si>
     <t>probuilds-de</t>
   </si>
@@ -315,6 +315,21 @@
   </si>
   <si>
     <t>https://buildpl.wordpress.com</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>https://lol-guide.medium.com</t>
+  </si>
+  <si>
+    <t>lol.guide.de@gmail.com</t>
+  </si>
+  <si>
+    <t>gfre35hg32dj65caFS</t>
+  </si>
+  <si>
+    <t>ge546rg43!165d23!</t>
   </si>
 </sst>
 </file>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71E433F-997F-4AFD-B346-CC24605D896D}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,6 +896,9 @@
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>48</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1148,6 +1166,32 @@
         <v>82</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1178,9 +1222,11 @@
     <hyperlink ref="D16" r:id="rId22" xr:uid="{F41CA9BF-1B64-4261-A43C-8982EADF7D18}"/>
     <hyperlink ref="E14" r:id="rId23" xr:uid="{A472D184-BB8D-4623-8B1F-3EBB79FED327}"/>
     <hyperlink ref="D14" r:id="rId24" xr:uid="{331677FD-71B9-4FEA-8E1C-21C18D169C84}"/>
+    <hyperlink ref="D17" r:id="rId25" xr:uid="{236989C0-95DD-47F6-9F50-07AD3BB7BFBE}"/>
+    <hyperlink ref="E17" r:id="rId26" xr:uid="{40CBFEDA-84E4-4D64-B280-B9405D57792D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/private/concepts/seo/WEB_2_0_RESSOURCES_1_HKR.xlsx
+++ b/private/concepts/seo/WEB_2_0_RESSOURCES_1_HKR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8577CF6-6C00-4A86-880B-E303A72E38F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F0DDD-26FD-4A10-ABBF-EDDA51F34D5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="285" windowWidth="27825" windowHeight="20100" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
+    <workbookView xWindow="22485" yWindow="885" windowWidth="27285" windowHeight="20100" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +780,7 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
@@ -1224,9 +1224,10 @@
     <hyperlink ref="D14" r:id="rId24" xr:uid="{331677FD-71B9-4FEA-8E1C-21C18D169C84}"/>
     <hyperlink ref="D17" r:id="rId25" xr:uid="{236989C0-95DD-47F6-9F50-07AD3BB7BFBE}"/>
     <hyperlink ref="E17" r:id="rId26" xr:uid="{40CBFEDA-84E4-4D64-B280-B9405D57792D}"/>
+    <hyperlink ref="E2" r:id="rId27" xr:uid="{319795D5-2996-40C7-B4A2-0F74BE95DBD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -1238,7 +1239,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/private/concepts/seo/WEB_2_0_RESSOURCES_1_HKR.xlsx
+++ b/private/concepts/seo/WEB_2_0_RESSOURCES_1_HKR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F0DDD-26FD-4A10-ABBF-EDDA51F34D5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F7B0DC-0F13-446E-833A-8C240273CEE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22485" yWindow="885" windowWidth="27285" windowHeight="20100" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
+    <workbookView minimized="1" xWindow="22095" yWindow="1410" windowWidth="27285" windowHeight="20100" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
